--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -4177,28 +4177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7691.584067815485</v>
+        <v>7878.959442643368</v>
       </c>
       <c r="AB2" t="n">
-        <v>10523.9646503262</v>
+        <v>10780.33990458385</v>
       </c>
       <c r="AC2" t="n">
-        <v>9519.572234575819</v>
+        <v>9751.479394392039</v>
       </c>
       <c r="AD2" t="n">
-        <v>7691584.067815485</v>
+        <v>7878959.442643368</v>
       </c>
       <c r="AE2" t="n">
-        <v>10523964.6503262</v>
+        <v>10780339.90458385</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.814953280364994e-07</v>
+        <v>9.830467036348269e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.84305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>9519572.234575819</v>
+        <v>9751479.39439204</v>
       </c>
     </row>
     <row r="3">
@@ -4283,28 +4283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2578.203011313898</v>
+        <v>2682.262512505135</v>
       </c>
       <c r="AB3" t="n">
-        <v>3527.611102369208</v>
+        <v>3669.989902680258</v>
       </c>
       <c r="AC3" t="n">
-        <v>3190.940849792236</v>
+        <v>3319.731217231495</v>
       </c>
       <c r="AD3" t="n">
-        <v>2578203.011313898</v>
+        <v>2682262.512505135</v>
       </c>
       <c r="AE3" t="n">
-        <v>3527611.102369208</v>
+        <v>3669989.902680258</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.092674362015399e-06</v>
+        <v>1.847220223337896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.54305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>3190940.849792236</v>
+        <v>3319731.217231495</v>
       </c>
     </row>
     <row r="4">
@@ -4389,28 +4389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1977.330251909747</v>
+        <v>2070.889928041831</v>
       </c>
       <c r="AB4" t="n">
-        <v>2705.470484316987</v>
+        <v>2833.482960762507</v>
       </c>
       <c r="AC4" t="n">
-        <v>2447.264178445447</v>
+        <v>2563.059323805645</v>
       </c>
       <c r="AD4" t="n">
-        <v>1977330.251909747</v>
+        <v>2070889.928041831</v>
       </c>
       <c r="AE4" t="n">
-        <v>2705470.484316987</v>
+        <v>2833482.960762507</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.278677007084776e-06</v>
+        <v>2.161666923572317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.84583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2447264.178445447</v>
+        <v>2563059.323805646</v>
       </c>
     </row>
     <row r="5">
@@ -4495,28 +4495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1734.681459670581</v>
+        <v>1817.911992452656</v>
       </c>
       <c r="AB5" t="n">
-        <v>2373.467701866162</v>
+        <v>2487.347388690555</v>
       </c>
       <c r="AC5" t="n">
-        <v>2146.947275582896</v>
+        <v>2249.958444927915</v>
       </c>
       <c r="AD5" t="n">
-        <v>1734681.459670581</v>
+        <v>1817911.992452656</v>
       </c>
       <c r="AE5" t="n">
-        <v>2373467.701866162</v>
+        <v>2487347.388690555</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378899608780982e-06</v>
+        <v>2.331098204404512e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.69305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2146947.275582896</v>
+        <v>2249958.444927915</v>
       </c>
     </row>
     <row r="6">
@@ -4601,28 +4601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1603.237233473628</v>
+        <v>1676.053371559673</v>
       </c>
       <c r="AB6" t="n">
-        <v>2193.619912673498</v>
+        <v>2293.250165224116</v>
       </c>
       <c r="AC6" t="n">
-        <v>1984.263906972822</v>
+        <v>2074.385588051947</v>
       </c>
       <c r="AD6" t="n">
-        <v>1603237.233473628</v>
+        <v>1676053.371559673</v>
       </c>
       <c r="AE6" t="n">
-        <v>2193619.912673498</v>
+        <v>2293250.165224116</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.441046374898279e-06</v>
+        <v>2.436160396012248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.06111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1984263.906972823</v>
+        <v>2074385.588051947</v>
       </c>
     </row>
     <row r="7">
@@ -4707,28 +4707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1506.749244264424</v>
+        <v>1579.650633696489</v>
       </c>
       <c r="AB7" t="n">
-        <v>2061.600789087807</v>
+        <v>2161.347686291073</v>
       </c>
       <c r="AC7" t="n">
-        <v>1864.844503252146</v>
+        <v>1955.071696581983</v>
       </c>
       <c r="AD7" t="n">
-        <v>1506749.244264424</v>
+        <v>1579650.633696489</v>
       </c>
       <c r="AE7" t="n">
-        <v>2061600.789087807</v>
+        <v>2161347.686291073</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.482623436737317e-06</v>
+        <v>2.506448481947001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1864844.503252146</v>
+        <v>1955071.696581983</v>
       </c>
     </row>
     <row r="8">
@@ -4813,28 +4813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1437.382820084639</v>
+        <v>1510.113617316113</v>
       </c>
       <c r="AB8" t="n">
-        <v>1966.690587294371</v>
+        <v>2066.204072722792</v>
       </c>
       <c r="AC8" t="n">
-        <v>1778.992397910571</v>
+        <v>1869.008455957757</v>
       </c>
       <c r="AD8" t="n">
-        <v>1437382.820084639</v>
+        <v>1510113.617316113</v>
       </c>
       <c r="AE8" t="n">
-        <v>1966690.587294371</v>
+        <v>2066204.072722792</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.514426241933492e-06</v>
+        <v>2.560212702065514e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.37916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1778992.397910571</v>
+        <v>1869008.455957757</v>
       </c>
     </row>
     <row r="9">
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1382.327608710725</v>
+        <v>1444.814603446761</v>
       </c>
       <c r="AB9" t="n">
-        <v>1891.361618228077</v>
+        <v>1976.859081157569</v>
       </c>
       <c r="AC9" t="n">
-        <v>1710.852719927092</v>
+        <v>1788.190424991036</v>
       </c>
       <c r="AD9" t="n">
-        <v>1382327.608710725</v>
+        <v>1444814.603446761</v>
       </c>
       <c r="AE9" t="n">
-        <v>1891361.618228077</v>
+        <v>1976859.081157569</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.537767750334355e-06</v>
+        <v>2.599672680134147e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.17638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1710852.719927092</v>
+        <v>1788190.424991036</v>
       </c>
     </row>
     <row r="10">
@@ -5025,28 +5025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1333.041194099037</v>
+        <v>1395.528188835073</v>
       </c>
       <c r="AB10" t="n">
-        <v>1823.925771393211</v>
+        <v>1909.423234322703</v>
       </c>
       <c r="AC10" t="n">
-        <v>1649.85285566734</v>
+        <v>1727.190560731284</v>
       </c>
       <c r="AD10" t="n">
-        <v>1333041.194099037</v>
+        <v>1395528.188835073</v>
       </c>
       <c r="AE10" t="n">
-        <v>1823925.771393211</v>
+        <v>1909423.234322703</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.557316263620078e-06</v>
+        <v>2.632720411766627e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13.01111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1649852.85566734</v>
+        <v>1727190.560731284</v>
       </c>
     </row>
     <row r="11">
@@ -5131,28 +5131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1282.877754545769</v>
+        <v>1355.693803123263</v>
       </c>
       <c r="AB11" t="n">
-        <v>1755.289940341667</v>
+        <v>1854.920070422736</v>
       </c>
       <c r="AC11" t="n">
-        <v>1587.767532000362</v>
+        <v>1677.88910229826</v>
       </c>
       <c r="AD11" t="n">
-        <v>1282877.754545769</v>
+        <v>1355693.803123263</v>
       </c>
       <c r="AE11" t="n">
-        <v>1755289.940341667</v>
+        <v>1854920.070422736</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.571029399805585e-06</v>
+        <v>2.655903148881949e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.89722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1587767.532000362</v>
+        <v>1677889.10229826</v>
       </c>
     </row>
     <row r="12">
@@ -5237,28 +5237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1246.306527450383</v>
+        <v>1319.122576027877</v>
       </c>
       <c r="AB12" t="n">
-        <v>1705.251574021088</v>
+        <v>1804.881704102158</v>
       </c>
       <c r="AC12" t="n">
-        <v>1542.504757132131</v>
+        <v>1632.626327430029</v>
       </c>
       <c r="AD12" t="n">
-        <v>1246306.527450383</v>
+        <v>1319122.576027877</v>
       </c>
       <c r="AE12" t="n">
-        <v>1705251.574021088</v>
+        <v>1804881.704102158</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.582700154006017e-06</v>
+        <v>2.675633137916266e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.80138888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1542504.757132131</v>
+        <v>1632626.327430029</v>
       </c>
     </row>
     <row r="13">
@@ -5343,28 +5343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1230.866683750368</v>
+        <v>1303.682732327862</v>
       </c>
       <c r="AB13" t="n">
-        <v>1684.126098712897</v>
+        <v>1783.756228793967</v>
       </c>
       <c r="AC13" t="n">
-        <v>1523.395467537563</v>
+        <v>1613.517037835461</v>
       </c>
       <c r="AD13" t="n">
-        <v>1230866.683750368</v>
+        <v>1303682.732327862</v>
       </c>
       <c r="AE13" t="n">
-        <v>1684126.098712897</v>
+        <v>1783756.228793967</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.587951993396211e-06</v>
+        <v>2.684511632981709e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.75972222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1523395.467537563</v>
+        <v>1613517.037835461</v>
       </c>
     </row>
     <row r="14">
@@ -5449,28 +5449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1237.367049307462</v>
+        <v>1310.183097884956</v>
       </c>
       <c r="AB14" t="n">
-        <v>1693.020185644003</v>
+        <v>1792.650315725072</v>
       </c>
       <c r="AC14" t="n">
-        <v>1531.440715294892</v>
+        <v>1621.562285592791</v>
       </c>
       <c r="AD14" t="n">
-        <v>1237367.049307462</v>
+        <v>1310183.097884956</v>
       </c>
       <c r="AE14" t="n">
-        <v>1693020.185644003</v>
+        <v>1792650.315725072</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.587806108968706e-06</v>
+        <v>2.68426500811878e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.75972222222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>1531440.715294892</v>
+        <v>1621562.285592791</v>
       </c>
     </row>
     <row r="15">
@@ -5555,28 +5555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1242.252389100391</v>
+        <v>1315.068437677885</v>
       </c>
       <c r="AB15" t="n">
-        <v>1699.704523074668</v>
+        <v>1799.334653155739</v>
       </c>
       <c r="AC15" t="n">
-        <v>1537.487108942702</v>
+        <v>1627.608679240601</v>
       </c>
       <c r="AD15" t="n">
-        <v>1242252.389100391</v>
+        <v>1315068.437677885</v>
       </c>
       <c r="AE15" t="n">
-        <v>1699704.523074668</v>
+        <v>1799334.653155738</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.5876602245412e-06</v>
+        <v>2.684018383255851e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.7625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1537487.108942702</v>
+        <v>1627608.679240601</v>
       </c>
     </row>
   </sheetData>
@@ -5852,28 +5852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4633.199907420198</v>
+        <v>4774.297265033648</v>
       </c>
       <c r="AB2" t="n">
-        <v>6339.348515686599</v>
+        <v>6532.404145149428</v>
       </c>
       <c r="AC2" t="n">
-        <v>5734.329990680752</v>
+        <v>5908.960661822918</v>
       </c>
       <c r="AD2" t="n">
-        <v>4633199.907420198</v>
+        <v>4774297.265033647</v>
       </c>
       <c r="AE2" t="n">
-        <v>6339348.515686599</v>
+        <v>6532404.145149427</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.648392432002688e-07</v>
+        <v>1.324541723544401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>5734329.990680752</v>
+        <v>5908960.661822918</v>
       </c>
     </row>
     <row r="3">
@@ -5958,28 +5958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2010.747134297</v>
+        <v>2101.47690403717</v>
       </c>
       <c r="AB3" t="n">
-        <v>2751.192937048031</v>
+        <v>2875.333410721475</v>
       </c>
       <c r="AC3" t="n">
-        <v>2488.622944459706</v>
+        <v>2600.915625558004</v>
       </c>
       <c r="AD3" t="n">
-        <v>2010747.134297</v>
+        <v>2101476.90403717</v>
       </c>
       <c r="AE3" t="n">
-        <v>2751192.937048031</v>
+        <v>2875333.410721475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234337050145027e-06</v>
+        <v>2.137613803644367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.98055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2488622.944459706</v>
+        <v>2600915.625558004</v>
       </c>
     </row>
     <row r="4">
@@ -6064,28 +6064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1604.685235648865</v>
+        <v>1685.324437545175</v>
       </c>
       <c r="AB4" t="n">
-        <v>2195.601133131004</v>
+        <v>2305.935246716043</v>
       </c>
       <c r="AC4" t="n">
-        <v>1986.056042530525</v>
+        <v>2085.860023169909</v>
       </c>
       <c r="AD4" t="n">
-        <v>1604685.235648865</v>
+        <v>1685324.437545174</v>
       </c>
       <c r="AE4" t="n">
-        <v>2195601.133131004</v>
+        <v>2305935.246716043</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.403060466462687e-06</v>
+        <v>2.429807498775117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.93888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1986056.042530525</v>
+        <v>2085860.023169909</v>
       </c>
     </row>
     <row r="5">
@@ -6170,28 +6170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1433.757256271481</v>
+        <v>1504.305979832481</v>
       </c>
       <c r="AB5" t="n">
-        <v>1961.729930936621</v>
+        <v>2058.257806902804</v>
       </c>
       <c r="AC5" t="n">
-        <v>1774.50517963328</v>
+        <v>1861.820570594974</v>
       </c>
       <c r="AD5" t="n">
-        <v>1433757.256271481</v>
+        <v>1504305.979832481</v>
       </c>
       <c r="AE5" t="n">
-        <v>1961729.930936621</v>
+        <v>2058257.806902803</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.492402382795473e-06</v>
+        <v>2.584529026071543e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.04444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1774505.17963328</v>
+        <v>1861820.570594975</v>
       </c>
     </row>
     <row r="6">
@@ -6276,28 +6276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1321.16364454102</v>
+        <v>1391.797619448042</v>
       </c>
       <c r="AB6" t="n">
-        <v>1807.674384087429</v>
+        <v>1904.318904706261</v>
       </c>
       <c r="AC6" t="n">
-        <v>1635.152477957057</v>
+        <v>1722.573381169464</v>
       </c>
       <c r="AD6" t="n">
-        <v>1321163.644541021</v>
+        <v>1391797.619448042</v>
       </c>
       <c r="AE6" t="n">
-        <v>1807674.384087429</v>
+        <v>1904318.904706261</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.546731926511356e-06</v>
+        <v>2.678616441319369e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.55138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1635152.477957057</v>
+        <v>1722573.381169464</v>
       </c>
     </row>
     <row r="7">
@@ -6382,28 +6382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1244.248580255199</v>
+        <v>1314.711962961628</v>
       </c>
       <c r="AB7" t="n">
-        <v>1702.435799878416</v>
+        <v>1798.846908722401</v>
       </c>
       <c r="AC7" t="n">
-        <v>1539.957716521671</v>
+        <v>1627.167484451427</v>
       </c>
       <c r="AD7" t="n">
-        <v>1244248.580255199</v>
+        <v>1314711.962961628</v>
       </c>
       <c r="AE7" t="n">
-        <v>1702435.799878416</v>
+        <v>1798846.908722401</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.585215353310107e-06</v>
+        <v>2.74526169378658e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1539957.716521671</v>
+        <v>1627167.484451427</v>
       </c>
     </row>
     <row r="8">
@@ -6488,28 +6488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1169.884235819016</v>
+        <v>1240.432869871466</v>
       </c>
       <c r="AB8" t="n">
-        <v>1600.687223097495</v>
+        <v>1697.21497659413</v>
       </c>
       <c r="AC8" t="n">
-        <v>1447.919881103697</v>
+        <v>1535.235161284166</v>
       </c>
       <c r="AD8" t="n">
-        <v>1169884.235819016</v>
+        <v>1240432.869871465</v>
       </c>
       <c r="AE8" t="n">
-        <v>1600687.223097496</v>
+        <v>1697214.97659413</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.612380125168049e-06</v>
+        <v>2.792305401410493e-06</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>1447919.881103697</v>
+        <v>1535235.161284166</v>
       </c>
     </row>
     <row r="9">
@@ -6594,28 +6594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1127.841931368281</v>
+        <v>1198.390565420731</v>
       </c>
       <c r="AB9" t="n">
-        <v>1543.163087372431</v>
+        <v>1639.690840869065</v>
       </c>
       <c r="AC9" t="n">
-        <v>1395.885768156601</v>
+        <v>1483.20104833707</v>
       </c>
       <c r="AD9" t="n">
-        <v>1127841.931368281</v>
+        <v>1198390.565420731</v>
       </c>
       <c r="AE9" t="n">
-        <v>1543163.087372431</v>
+        <v>1639690.840869065</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.62792441128676e-06</v>
+        <v>2.819224856328621e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1395885.768156601</v>
+        <v>1483201.04833707</v>
       </c>
     </row>
     <row r="10">
@@ -6700,28 +6700,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1119.656999539472</v>
+        <v>1190.205633591922</v>
       </c>
       <c r="AB10" t="n">
-        <v>1531.964102550547</v>
+        <v>1628.491856047181</v>
       </c>
       <c r="AC10" t="n">
-        <v>1385.755598728244</v>
+        <v>1473.070878908712</v>
       </c>
       <c r="AD10" t="n">
-        <v>1119656.999539472</v>
+        <v>1190205.633591922</v>
       </c>
       <c r="AE10" t="n">
-        <v>1531964.102550547</v>
+        <v>1628491.856047181</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.63365919645677e-06</v>
+        <v>2.829156305715892e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.83055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1385755.598728244</v>
+        <v>1473070.878908712</v>
       </c>
     </row>
     <row r="11">
@@ -6806,28 +6806,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1123.801885150711</v>
+        <v>1194.350519203161</v>
       </c>
       <c r="AB11" t="n">
-        <v>1537.635317903292</v>
+        <v>1634.163071399926</v>
       </c>
       <c r="AC11" t="n">
-        <v>1390.885561247324</v>
+        <v>1478.200841427792</v>
       </c>
       <c r="AD11" t="n">
-        <v>1123801.885150711</v>
+        <v>1194350.51920316</v>
       </c>
       <c r="AE11" t="n">
-        <v>1537635.317903292</v>
+        <v>1634163.071399926</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.633357365658348e-06</v>
+        <v>2.828633597853404e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.83194444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1390885.561247324</v>
+        <v>1478200.841427792</v>
       </c>
     </row>
   </sheetData>
@@ -7103,28 +7103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1485.635311789125</v>
+        <v>1567.503010102972</v>
       </c>
       <c r="AB2" t="n">
-        <v>2032.711775194143</v>
+        <v>2144.726771775092</v>
       </c>
       <c r="AC2" t="n">
-        <v>1838.712616298508</v>
+        <v>1940.037058819807</v>
       </c>
       <c r="AD2" t="n">
-        <v>1485635.311789125</v>
+        <v>1567503.010102971</v>
       </c>
       <c r="AE2" t="n">
-        <v>2032711.775194143</v>
+        <v>2144726.771775092</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.341639617326198e-06</v>
+        <v>2.53867086303415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.43333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1838712.616298508</v>
+        <v>1940037.058819807</v>
       </c>
     </row>
     <row r="3">
@@ -7209,28 +7209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>946.5541706271031</v>
+        <v>1019.306413819683</v>
       </c>
       <c r="AB3" t="n">
-        <v>1295.117175274807</v>
+        <v>1394.660004013342</v>
       </c>
       <c r="AC3" t="n">
-        <v>1171.513009774951</v>
+        <v>1261.555610647917</v>
       </c>
       <c r="AD3" t="n">
-        <v>946554.1706271031</v>
+        <v>1019306.413819683</v>
       </c>
       <c r="AE3" t="n">
-        <v>1295117.175274807</v>
+        <v>1394660.004013342</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.675912824354251e-06</v>
+        <v>3.171187702888899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.95555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1171513.009774951</v>
+        <v>1261555.610647917</v>
       </c>
     </row>
     <row r="4">
@@ -7315,28 +7315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>866.6742937123158</v>
+        <v>930.311260800731</v>
       </c>
       <c r="AB4" t="n">
-        <v>1185.822003628541</v>
+        <v>1272.892909463758</v>
       </c>
       <c r="AC4" t="n">
-        <v>1072.648815913867</v>
+        <v>1151.409796700955</v>
       </c>
       <c r="AD4" t="n">
-        <v>866674.2937123158</v>
+        <v>930311.260800731</v>
       </c>
       <c r="AE4" t="n">
-        <v>1185822.003628541</v>
+        <v>1272892.909463758</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.738557475746914e-06</v>
+        <v>3.289724863808782e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.45277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1072648.815913867</v>
+        <v>1151409.796700955</v>
       </c>
     </row>
     <row r="5">
@@ -7421,28 +7421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>873.8161838239347</v>
+        <v>937.4531509123501</v>
       </c>
       <c r="AB5" t="n">
-        <v>1195.593852757213</v>
+        <v>1282.664758592429</v>
       </c>
       <c r="AC5" t="n">
-        <v>1081.488053476575</v>
+        <v>1160.249034263662</v>
       </c>
       <c r="AD5" t="n">
-        <v>873816.1838239346</v>
+        <v>937453.1509123502</v>
       </c>
       <c r="AE5" t="n">
-        <v>1195593.852757212</v>
+        <v>1282664.758592429</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.738389076146396e-06</v>
+        <v>3.289406215526739e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.45416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1081488.053476575</v>
+        <v>1160249.034263663</v>
       </c>
     </row>
   </sheetData>
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2252.231367816437</v>
+        <v>2347.112424260141</v>
       </c>
       <c r="AB2" t="n">
-        <v>3081.602318881995</v>
+        <v>3211.422766165067</v>
       </c>
       <c r="AC2" t="n">
-        <v>2787.4985186238</v>
+        <v>2904.929084622312</v>
       </c>
       <c r="AD2" t="n">
-        <v>2252231.367816437</v>
+        <v>2347112.424260141</v>
       </c>
       <c r="AE2" t="n">
-        <v>3081602.318881996</v>
+        <v>3211422.766165067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.108385572176012e-06</v>
+        <v>2.019237799111819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2787498.5186238</v>
+        <v>2904929.084622312</v>
       </c>
     </row>
     <row r="3">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1293.274129242104</v>
+        <v>1369.161834619312</v>
       </c>
       <c r="AB3" t="n">
-        <v>1769.514718856874</v>
+        <v>1873.347625283246</v>
       </c>
       <c r="AC3" t="n">
-        <v>1600.634717618679</v>
+        <v>1694.557957186118</v>
       </c>
       <c r="AD3" t="n">
-        <v>1293274.129242104</v>
+        <v>1369161.834619312</v>
       </c>
       <c r="AE3" t="n">
-        <v>1769514.718856874</v>
+        <v>1873347.625283246</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.498898163303141e-06</v>
+        <v>2.730666930659355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.92777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1600634.717618679</v>
+        <v>1694557.957186118</v>
       </c>
     </row>
     <row r="4">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1074.622301021122</v>
+        <v>1141.098716473928</v>
       </c>
       <c r="AB4" t="n">
-        <v>1470.345641247061</v>
+        <v>1561.30160560206</v>
       </c>
       <c r="AC4" t="n">
-        <v>1330.017916889509</v>
+        <v>1412.293171663965</v>
       </c>
       <c r="AD4" t="n">
-        <v>1074622.301021121</v>
+        <v>1141098.716473928</v>
       </c>
       <c r="AE4" t="n">
-        <v>1470345.641247061</v>
+        <v>1561301.60560206</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634868718959617e-06</v>
+        <v>2.978375753689932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.68611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1330017.916889509</v>
+        <v>1412293.171663965</v>
       </c>
     </row>
     <row r="5">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>969.8638203820606</v>
+        <v>1026.843694564446</v>
       </c>
       <c r="AB5" t="n">
-        <v>1327.01046641871</v>
+        <v>1404.972844049686</v>
       </c>
       <c r="AC5" t="n">
-        <v>1200.362449974595</v>
+        <v>1270.884207705354</v>
       </c>
       <c r="AD5" t="n">
-        <v>969863.8203820606</v>
+        <v>1026843.694564446</v>
       </c>
       <c r="AE5" t="n">
-        <v>1327010.46641871</v>
+        <v>1404972.844049686</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.69850422782728e-06</v>
+        <v>3.094305830819172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1200362.449974595</v>
+        <v>1270884.207705354</v>
       </c>
     </row>
     <row r="6">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>961.9889470815743</v>
+        <v>1018.96882126396</v>
       </c>
       <c r="AB6" t="n">
-        <v>1316.235717354094</v>
+        <v>1394.19809498507</v>
       </c>
       <c r="AC6" t="n">
-        <v>1190.61602783825</v>
+        <v>1261.13778556901</v>
       </c>
       <c r="AD6" t="n">
-        <v>961988.9470815744</v>
+        <v>1018968.82126396</v>
       </c>
       <c r="AE6" t="n">
-        <v>1316235.717354094</v>
+        <v>1394198.09498507</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.706237150423857e-06</v>
+        <v>3.108393536394371e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.11388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1190616.02783825</v>
+        <v>1261137.78556901</v>
       </c>
     </row>
     <row r="7">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>967.7986475728476</v>
+        <v>1024.778521755233</v>
       </c>
       <c r="AB7" t="n">
-        <v>1324.18480587215</v>
+        <v>1402.147183503127</v>
       </c>
       <c r="AC7" t="n">
-        <v>1197.806466504759</v>
+        <v>1268.328224235519</v>
       </c>
       <c r="AD7" t="n">
-        <v>967798.6475728475</v>
+        <v>1024778.521755233</v>
       </c>
       <c r="AE7" t="n">
-        <v>1324184.80587215</v>
+        <v>1402147.183503126</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.705914945315666e-06</v>
+        <v>3.107806548662071e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.11666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1197806.466504759</v>
+        <v>1268328.224235519</v>
       </c>
     </row>
   </sheetData>
@@ -8545,28 +8545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1042.046511684218</v>
+        <v>1112.467711420756</v>
       </c>
       <c r="AB2" t="n">
-        <v>1425.774009133912</v>
+        <v>1522.127401377513</v>
       </c>
       <c r="AC2" t="n">
-        <v>1289.700138788561</v>
+        <v>1376.857698509267</v>
       </c>
       <c r="AD2" t="n">
-        <v>1042046.511684218</v>
+        <v>1112467.711420756</v>
       </c>
       <c r="AE2" t="n">
-        <v>1425774.009133912</v>
+        <v>1522127.401377513</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546265744678271e-06</v>
+        <v>3.030182652023334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.70972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1289700.138788561</v>
+        <v>1376857.698509267</v>
       </c>
     </row>
     <row r="3">
@@ -8651,28 +8651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>801.0072725604122</v>
+        <v>871.2577905878077</v>
       </c>
       <c r="AB3" t="n">
-        <v>1095.973488263995</v>
+        <v>1192.0933462632</v>
       </c>
       <c r="AC3" t="n">
-        <v>991.3753167525302</v>
+        <v>1078.321630409359</v>
       </c>
       <c r="AD3" t="n">
-        <v>801007.2725604122</v>
+        <v>871257.7905878077</v>
       </c>
       <c r="AE3" t="n">
-        <v>1095973.488263995</v>
+        <v>1192093.3462632</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.743724632331451e-06</v>
+        <v>3.417138450477621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.93055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>991375.3167525303</v>
+        <v>1078321.630409359</v>
       </c>
     </row>
     <row r="4">
@@ -8757,28 +8757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>807.1140244871426</v>
+        <v>877.3645425145379</v>
       </c>
       <c r="AB4" t="n">
-        <v>1104.329015661028</v>
+        <v>1200.448873660233</v>
       </c>
       <c r="AC4" t="n">
-        <v>998.9334043418471</v>
+        <v>1085.879717998675</v>
       </c>
       <c r="AD4" t="n">
-        <v>807114.0244871426</v>
+        <v>877364.5425145379</v>
       </c>
       <c r="AE4" t="n">
-        <v>1104329.015661028</v>
+        <v>1200448.873660233</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.744948912414332e-06</v>
+        <v>3.419537644976452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.92083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>998933.4043418471</v>
+        <v>1085879.717998676</v>
       </c>
     </row>
   </sheetData>
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5227.140419426166</v>
+        <v>5379.690675921835</v>
       </c>
       <c r="AB2" t="n">
-        <v>7152.004127019297</v>
+        <v>7360.730117999018</v>
       </c>
       <c r="AC2" t="n">
-        <v>6469.426891037142</v>
+        <v>6658.232366386519</v>
       </c>
       <c r="AD2" t="n">
-        <v>5227140.419426166</v>
+        <v>5379690.675921835</v>
       </c>
       <c r="AE2" t="n">
-        <v>7152004.127019297</v>
+        <v>7360730.117999018</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.165407000043364e-07</v>
+        <v>1.232794808615388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6469426.891037142</v>
+        <v>6658232.366386519</v>
       </c>
     </row>
     <row r="3">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2148.717715852817</v>
+        <v>2240.128482062371</v>
       </c>
       <c r="AB3" t="n">
-        <v>2939.97037356517</v>
+        <v>3065.042616651647</v>
       </c>
       <c r="AC3" t="n">
-        <v>2659.383727386445</v>
+        <v>2772.519251132629</v>
       </c>
       <c r="AD3" t="n">
-        <v>2148717.715852817</v>
+        <v>2240128.482062371</v>
       </c>
       <c r="AE3" t="n">
-        <v>2939970.37356517</v>
+        <v>3065042.616651647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.197375254484391e-06</v>
+        <v>2.06006162341365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.34861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2659383.727386445</v>
+        <v>2772519.251132628</v>
       </c>
     </row>
     <row r="4">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1701.43315829578</v>
+        <v>1772.663193234443</v>
       </c>
       <c r="AB4" t="n">
-        <v>2327.975909113624</v>
+        <v>2425.435985364062</v>
       </c>
       <c r="AC4" t="n">
-        <v>2105.797155682528</v>
+        <v>2193.955779041701</v>
       </c>
       <c r="AD4" t="n">
-        <v>1701433.158295779</v>
+        <v>1772663.193234443</v>
       </c>
       <c r="AE4" t="n">
-        <v>2327975.909113624</v>
+        <v>2425435.985364062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.370864549413431e-06</v>
+        <v>2.358546695004936e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.15277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2105797.155682528</v>
+        <v>2193955.779041701</v>
       </c>
     </row>
     <row r="5">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1509.36173387481</v>
+        <v>1580.506427958902</v>
       </c>
       <c r="AB5" t="n">
-        <v>2065.175312627645</v>
+        <v>2162.518621755885</v>
       </c>
       <c r="AC5" t="n">
-        <v>1868.077879282217</v>
+        <v>1956.130879609451</v>
       </c>
       <c r="AD5" t="n">
-        <v>1509361.73387481</v>
+        <v>1580506.427958902</v>
       </c>
       <c r="AE5" t="n">
-        <v>2065175.312627645</v>
+        <v>2162518.621755885</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461946429251177e-06</v>
+        <v>2.515251357590361e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1868077.879282217</v>
+        <v>1956130.879609451</v>
       </c>
     </row>
     <row r="6">
@@ -9478,28 +9478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1387.183292602305</v>
+        <v>1458.413238032418</v>
       </c>
       <c r="AB6" t="n">
-        <v>1898.005379146191</v>
+        <v>1995.46533292708</v>
       </c>
       <c r="AC6" t="n">
-        <v>1716.862409627758</v>
+        <v>1805.020922205704</v>
       </c>
       <c r="AD6" t="n">
-        <v>1387183.292602305</v>
+        <v>1458413.238032418</v>
       </c>
       <c r="AE6" t="n">
-        <v>1898005.379146191</v>
+        <v>1995465.33292708</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.5199756072102e-06</v>
+        <v>2.615089467743308e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1716862.409627758</v>
+        <v>1805020.922205704</v>
       </c>
     </row>
     <row r="7">
@@ -9584,28 +9584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1312.063097249896</v>
+        <v>1383.122450479417</v>
       </c>
       <c r="AB7" t="n">
-        <v>1795.222613795901</v>
+        <v>1892.449155801944</v>
       </c>
       <c r="AC7" t="n">
-        <v>1623.889087145983</v>
+        <v>1711.836464441278</v>
       </c>
       <c r="AD7" t="n">
-        <v>1312063.097249896</v>
+        <v>1383122.450479417</v>
       </c>
       <c r="AE7" t="n">
-        <v>1795222.613795901</v>
+        <v>1892449.155801944</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.557365541462148e-06</v>
+        <v>2.679418146965569e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.3375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1623889.087145983</v>
+        <v>1711836.464441278</v>
       </c>
     </row>
     <row r="8">
@@ -9690,28 +9690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1246.839783624609</v>
+        <v>1307.894112073257</v>
       </c>
       <c r="AB8" t="n">
-        <v>1705.981198644266</v>
+        <v>1789.518424354578</v>
       </c>
       <c r="AC8" t="n">
-        <v>1543.164747405308</v>
+        <v>1618.729297539059</v>
       </c>
       <c r="AD8" t="n">
-        <v>1246839.783624609</v>
+        <v>1307894.112073257</v>
       </c>
       <c r="AE8" t="n">
-        <v>1705981.198644266</v>
+        <v>1789518.424354578</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.586828809652684e-06</v>
+        <v>2.730109146192709e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.09027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1543164.747405308</v>
+        <v>1618729.297539059</v>
       </c>
     </row>
     <row r="9">
@@ -9796,28 +9796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1183.940177641015</v>
+        <v>1255.084782216556</v>
       </c>
       <c r="AB9" t="n">
-        <v>1619.919182802742</v>
+        <v>1717.262369461434</v>
       </c>
       <c r="AC9" t="n">
-        <v>1465.3163695669</v>
+        <v>1553.369259112907</v>
       </c>
       <c r="AD9" t="n">
-        <v>1183940.177641015</v>
+        <v>1255084.782216556</v>
       </c>
       <c r="AE9" t="n">
-        <v>1619919.182802742</v>
+        <v>1717262.369461434</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.606869814411728e-06</v>
+        <v>2.764589318255841e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.92777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1465316.3695669</v>
+        <v>1553369.259112907</v>
       </c>
     </row>
     <row r="10">
@@ -9902,28 +9902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1149.537686164718</v>
+        <v>1220.68229074026</v>
       </c>
       <c r="AB10" t="n">
-        <v>1572.848176234066</v>
+        <v>1670.191362892758</v>
       </c>
       <c r="AC10" t="n">
-        <v>1422.737753800566</v>
+        <v>1510.790643346573</v>
       </c>
       <c r="AD10" t="n">
-        <v>1149537.686164719</v>
+        <v>1220682.29074026</v>
       </c>
       <c r="AE10" t="n">
-        <v>1572848.176234066</v>
+        <v>1670191.362892758</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.619283272583375e-06</v>
+        <v>2.785946439757631e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.82777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1422737.753800566</v>
+        <v>1510790.643346573</v>
       </c>
     </row>
     <row r="11">
@@ -10008,28 +10008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1149.95634586394</v>
+        <v>1221.100950439481</v>
       </c>
       <c r="AB11" t="n">
-        <v>1573.421004904503</v>
+        <v>1670.764191563195</v>
       </c>
       <c r="AC11" t="n">
-        <v>1423.255912506667</v>
+        <v>1511.308802052674</v>
       </c>
       <c r="AD11" t="n">
-        <v>1149956.34586394</v>
+        <v>1221100.950439481</v>
       </c>
       <c r="AE11" t="n">
-        <v>1573421.004904503</v>
+        <v>1670764.191563195</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.621526668638492e-06</v>
+        <v>2.789806160510967e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.81111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1423255.912506667</v>
+        <v>1511308.802052674</v>
       </c>
     </row>
     <row r="12">
@@ -10114,28 +10114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1156.042280518651</v>
+        <v>1227.186885094191</v>
       </c>
       <c r="AB12" t="n">
-        <v>1581.748049191565</v>
+        <v>1679.091235850258</v>
       </c>
       <c r="AC12" t="n">
-        <v>1430.788235374052</v>
+        <v>1518.841124920059</v>
       </c>
       <c r="AD12" t="n">
-        <v>1156042.280518651</v>
+        <v>1227186.885094191</v>
       </c>
       <c r="AE12" t="n">
-        <v>1581748.049191565</v>
+        <v>1679091.235850258</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.621227549164476e-06</v>
+        <v>2.789291531077188e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1430788.235374052</v>
+        <v>1518841.124920059</v>
       </c>
     </row>
   </sheetData>
@@ -10411,28 +10411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>835.8825746172992</v>
+        <v>904.7370376260977</v>
       </c>
       <c r="AB2" t="n">
-        <v>1143.691415127966</v>
+        <v>1237.901129061126</v>
       </c>
       <c r="AC2" t="n">
-        <v>1034.539111649135</v>
+        <v>1119.757582708678</v>
       </c>
       <c r="AD2" t="n">
-        <v>835882.5746172991</v>
+        <v>904737.0376260977</v>
       </c>
       <c r="AE2" t="n">
-        <v>1143691.415127966</v>
+        <v>1237901.129061126</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.667438851432087e-06</v>
+        <v>3.342648595879541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.90833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1034539.111649135</v>
+        <v>1119757.582708678</v>
       </c>
     </row>
     <row r="3">
@@ -10517,28 +10517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>776.2810107267829</v>
+        <v>836.5180877612113</v>
       </c>
       <c r="AB3" t="n">
-        <v>1062.141925977539</v>
+        <v>1144.560952248328</v>
       </c>
       <c r="AC3" t="n">
-        <v>960.7725912877979</v>
+        <v>1035.325661367132</v>
       </c>
       <c r="AD3" t="n">
-        <v>776281.010726783</v>
+        <v>836518.0877612113</v>
       </c>
       <c r="AE3" t="n">
-        <v>1062141.925977539</v>
+        <v>1144560.952248328</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.73420084065323e-06</v>
+        <v>3.476483710334573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.33472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>960772.5912877979</v>
+        <v>1035325.661367132</v>
       </c>
     </row>
   </sheetData>
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3240.05646871951</v>
+        <v>3357.656897450696</v>
       </c>
       <c r="AB2" t="n">
-        <v>4433.188201705402</v>
+        <v>4594.094296460176</v>
       </c>
       <c r="AC2" t="n">
-        <v>4010.090941753191</v>
+        <v>4155.640384657684</v>
       </c>
       <c r="AD2" t="n">
-        <v>3240056.46871951</v>
+        <v>3357656.897450696</v>
       </c>
       <c r="AE2" t="n">
-        <v>4433188.201705402</v>
+        <v>4594094.296460176</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.231419076767149e-07</v>
+        <v>1.634952914308763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.39444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>4010090.94175319</v>
+        <v>4155640.384657684</v>
       </c>
     </row>
     <row r="3">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1641.297257236408</v>
+        <v>1729.454841226099</v>
       </c>
       <c r="AB3" t="n">
-        <v>2245.695316275477</v>
+        <v>2366.31641192829</v>
       </c>
       <c r="AC3" t="n">
-        <v>2031.369307143317</v>
+        <v>2140.478494719796</v>
       </c>
       <c r="AD3" t="n">
-        <v>1641297.257236408</v>
+        <v>1729454.8412261</v>
       </c>
       <c r="AE3" t="n">
-        <v>2245695.316275477</v>
+        <v>2366316.41192829</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.355714046325295e-06</v>
+        <v>2.401070314949993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.92916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2031369.307143317</v>
+        <v>2140478.494719796</v>
       </c>
     </row>
     <row r="4">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1346.172441802777</v>
+        <v>1414.786952666961</v>
       </c>
       <c r="AB4" t="n">
-        <v>1841.892523811231</v>
+        <v>1935.773924634188</v>
       </c>
       <c r="AC4" t="n">
-        <v>1666.10488645108</v>
+        <v>1751.026378142868</v>
       </c>
       <c r="AD4" t="n">
-        <v>1346172.441802777</v>
+        <v>1414786.952666961</v>
       </c>
       <c r="AE4" t="n">
-        <v>1841892.523811231</v>
+        <v>1935773.924634188</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.50949328612524e-06</v>
+        <v>2.673424775494269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.30694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>1666104.88645108</v>
+        <v>1751026.378142868</v>
       </c>
     </row>
     <row r="5">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1196.884656206404</v>
+        <v>1265.584418416609</v>
       </c>
       <c r="AB5" t="n">
-        <v>1637.630389445997</v>
+        <v>1731.628434921604</v>
       </c>
       <c r="AC5" t="n">
-        <v>1481.337243505958</v>
+        <v>1566.364247448458</v>
       </c>
       <c r="AD5" t="n">
-        <v>1196884.656206404</v>
+        <v>1265584.418416609</v>
       </c>
       <c r="AE5" t="n">
-        <v>1637630.389445997</v>
+        <v>1731628.434921604</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.590814360357162e-06</v>
+        <v>2.817450440675923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.575</v>
       </c>
       <c r="AH5" t="n">
-        <v>1481337.243505958</v>
+        <v>1566364.247448458</v>
       </c>
     </row>
     <row r="6">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1102.598876445462</v>
+        <v>1161.484476419903</v>
       </c>
       <c r="AB6" t="n">
-        <v>1508.624425982044</v>
+        <v>1589.194301716397</v>
       </c>
       <c r="AC6" t="n">
-        <v>1364.643428133997</v>
+        <v>1437.523828008795</v>
       </c>
       <c r="AD6" t="n">
-        <v>1102598.876445462</v>
+        <v>1161484.476419903</v>
       </c>
       <c r="AE6" t="n">
-        <v>1508624.425982044</v>
+        <v>1589194.301716397</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639327123570087e-06</v>
+        <v>2.903370149159052e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1364643.428133997</v>
+        <v>1437523.828008795</v>
       </c>
     </row>
     <row r="7">
@@ -11344,28 +11344,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1040.473288251694</v>
+        <v>1109.087709607327</v>
       </c>
       <c r="AB7" t="n">
-        <v>1423.621455427814</v>
+        <v>1517.502733781222</v>
       </c>
       <c r="AC7" t="n">
-        <v>1287.753021787044</v>
+        <v>1372.674402697605</v>
       </c>
       <c r="AD7" t="n">
-        <v>1040473.288251694</v>
+        <v>1109087.709607327</v>
       </c>
       <c r="AE7" t="n">
-        <v>1423621.455427814</v>
+        <v>1517502.733781222</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.665293891059056e-06</v>
+        <v>2.949359223892008e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.96805555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1287753.021787044</v>
+        <v>1372674.402697605</v>
       </c>
     </row>
     <row r="8">
@@ -11450,28 +11450,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1034.33388915172</v>
+        <v>1102.948310507353</v>
       </c>
       <c r="AB8" t="n">
-        <v>1415.221258728057</v>
+        <v>1509.102537081466</v>
       </c>
       <c r="AC8" t="n">
-        <v>1280.154528070563</v>
+        <v>1365.075908981124</v>
       </c>
       <c r="AD8" t="n">
-        <v>1034333.88915172</v>
+        <v>1102948.310507353</v>
       </c>
       <c r="AE8" t="n">
-        <v>1415221.258728057</v>
+        <v>1509102.537081466</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.6693366213268e-06</v>
+        <v>2.956519199598936e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.93611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1280154.528070563</v>
+        <v>1365075.908981123</v>
       </c>
     </row>
     <row r="9">
@@ -11556,28 +11556,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1040.712922061484</v>
+        <v>1109.327343417117</v>
       </c>
       <c r="AB9" t="n">
-        <v>1423.949332978266</v>
+        <v>1517.830611331674</v>
       </c>
       <c r="AC9" t="n">
-        <v>1288.04960716426</v>
+        <v>1372.970988074821</v>
       </c>
       <c r="AD9" t="n">
-        <v>1040712.922061484</v>
+        <v>1109327.343417117</v>
       </c>
       <c r="AE9" t="n">
-        <v>1423949.332978266</v>
+        <v>1517830.611331675</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.669492110952482e-06</v>
+        <v>2.956794583279972e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.93611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1288049.60716426</v>
+        <v>1372970.988074821</v>
       </c>
     </row>
   </sheetData>
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4107.72947110169</v>
+        <v>4247.589473106107</v>
       </c>
       <c r="AB2" t="n">
-        <v>5620.376682596037</v>
+        <v>5811.739307526306</v>
       </c>
       <c r="AC2" t="n">
-        <v>5083.975820257075</v>
+        <v>5257.075064843125</v>
       </c>
       <c r="AD2" t="n">
-        <v>4107729.47110169</v>
+        <v>4247589.473106107</v>
       </c>
       <c r="AE2" t="n">
-        <v>5620376.682596037</v>
+        <v>5811739.307526306</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.147616769845483e-07</v>
+        <v>1.420873220319676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.96944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>5083975.820257075</v>
+        <v>5257075.064843125</v>
       </c>
     </row>
     <row r="3">
@@ -11959,28 +11959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1886.270560726386</v>
+        <v>1976.204945116245</v>
       </c>
       <c r="AB3" t="n">
-        <v>2580.878597569863</v>
+        <v>2703.930789917087</v>
       </c>
       <c r="AC3" t="n">
-        <v>2334.563166503656</v>
+        <v>2445.871430318098</v>
       </c>
       <c r="AD3" t="n">
-        <v>1886270.560726386</v>
+        <v>1976204.945116245</v>
       </c>
       <c r="AE3" t="n">
-        <v>2580878.597569863</v>
+        <v>2703930.789917087</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273636428494918e-06</v>
+        <v>2.22111071837556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.6125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2334563.166503656</v>
+        <v>2445871.430318098</v>
       </c>
     </row>
     <row r="4">
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1517.390165926794</v>
+        <v>1597.322358622828</v>
       </c>
       <c r="AB4" t="n">
-        <v>2076.160167550594</v>
+        <v>2185.52691995677</v>
       </c>
       <c r="AC4" t="n">
-        <v>1878.014355068661</v>
+        <v>1976.943298122393</v>
       </c>
       <c r="AD4" t="n">
-        <v>1517390.165926794</v>
+        <v>1597322.358622828</v>
       </c>
       <c r="AE4" t="n">
-        <v>2076160.167550594</v>
+        <v>2185526.91995677</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.436954401144028e-06</v>
+        <v>2.505923001880178e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.725</v>
       </c>
       <c r="AH4" t="n">
-        <v>1878014.355068661</v>
+        <v>1976943.298122393</v>
       </c>
     </row>
     <row r="5">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1350.939033923538</v>
+        <v>1430.785885765</v>
       </c>
       <c r="AB5" t="n">
-        <v>1848.41438543806</v>
+        <v>1957.664370722038</v>
       </c>
       <c r="AC5" t="n">
-        <v>1672.004310757734</v>
+        <v>1770.827630779527</v>
       </c>
       <c r="AD5" t="n">
-        <v>1350939.033923538</v>
+        <v>1430785.885765</v>
       </c>
       <c r="AE5" t="n">
-        <v>1848414.385438059</v>
+        <v>1957664.370722038</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522269759990577e-06</v>
+        <v>2.654705538039306e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="AH5" t="n">
-        <v>1672004.310757734</v>
+        <v>1770827.630779527</v>
       </c>
     </row>
     <row r="6">
@@ -12277,28 +12277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1253.42704805473</v>
+        <v>1323.271797710917</v>
       </c>
       <c r="AB6" t="n">
-        <v>1714.994184447154</v>
+        <v>1810.558852259635</v>
       </c>
       <c r="AC6" t="n">
-        <v>1551.317546492972</v>
+        <v>1637.761656535283</v>
       </c>
       <c r="AD6" t="n">
-        <v>1253427.04805473</v>
+        <v>1323271.797710917</v>
       </c>
       <c r="AE6" t="n">
-        <v>1714994.184447154</v>
+        <v>1810558.852259635</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.575591859269671e-06</v>
+        <v>2.747694623138761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.43055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1551317.546492972</v>
+        <v>1637761.656535283</v>
       </c>
     </row>
     <row r="7">
@@ -12383,28 +12383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1182.13913903163</v>
+        <v>1242.152378703135</v>
       </c>
       <c r="AB7" t="n">
-        <v>1617.454922321166</v>
+        <v>1699.567684436995</v>
       </c>
       <c r="AC7" t="n">
-        <v>1463.087294647074</v>
+        <v>1537.363329992554</v>
       </c>
       <c r="AD7" t="n">
-        <v>1182139.13903163</v>
+        <v>1242152.378703135</v>
       </c>
       <c r="AE7" t="n">
-        <v>1617454.922321166</v>
+        <v>1699567.684436995</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.611850886779454e-06</v>
+        <v>2.810927201006391e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.12777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1463087.294647074</v>
+        <v>1537363.329992554</v>
       </c>
     </row>
     <row r="8">
@@ -12489,28 +12489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1105.994734506102</v>
+        <v>1175.92473550831</v>
       </c>
       <c r="AB8" t="n">
-        <v>1513.270788795296</v>
+        <v>1608.952101260425</v>
       </c>
       <c r="AC8" t="n">
-        <v>1368.846348601563</v>
+        <v>1455.395970894586</v>
       </c>
       <c r="AD8" t="n">
-        <v>1105994.734506102</v>
+        <v>1175924.73550831</v>
       </c>
       <c r="AE8" t="n">
-        <v>1513270.788795296</v>
+        <v>1608952.101260425</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.638054889853751e-06</v>
+        <v>2.856624694255266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.91805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1368846.348601563</v>
+        <v>1455395.970894586</v>
       </c>
     </row>
     <row r="9">
@@ -12595,28 +12595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1091.477779449723</v>
+        <v>1161.407780451931</v>
       </c>
       <c r="AB9" t="n">
-        <v>1493.408050444301</v>
+        <v>1589.089362909431</v>
       </c>
       <c r="AC9" t="n">
-        <v>1350.879282121259</v>
+        <v>1437.428904414283</v>
       </c>
       <c r="AD9" t="n">
-        <v>1091477.779449723</v>
+        <v>1161407.780451931</v>
       </c>
       <c r="AE9" t="n">
-        <v>1493408.050444301</v>
+        <v>1589089.362909431</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.643691797491827e-06</v>
+        <v>2.866454968965779e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.87361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1350879.282121259</v>
+        <v>1437428.904414283</v>
       </c>
     </row>
     <row r="10">
@@ -12701,28 +12701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1095.293122892953</v>
+        <v>1165.22312389516</v>
       </c>
       <c r="AB10" t="n">
-        <v>1498.628371664401</v>
+        <v>1594.309684129531</v>
       </c>
       <c r="AC10" t="n">
-        <v>1355.601383210879</v>
+        <v>1442.151005503903</v>
       </c>
       <c r="AD10" t="n">
-        <v>1095293.122892953</v>
+        <v>1165223.12389516</v>
       </c>
       <c r="AE10" t="n">
-        <v>1498628.371664401</v>
+        <v>1594309.684129531</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.644910588332492e-06</v>
+        <v>2.868580433768053e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.86388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1355601.38321088</v>
+        <v>1442151.005503903</v>
       </c>
     </row>
   </sheetData>
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6727.982166264344</v>
+        <v>6903.633055915211</v>
       </c>
       <c r="AB2" t="n">
-        <v>9205.52201750824</v>
+        <v>9445.855313898915</v>
       </c>
       <c r="AC2" t="n">
-        <v>8326.959916188203</v>
+        <v>8544.356140081241</v>
       </c>
       <c r="AD2" t="n">
-        <v>6727982.166264344</v>
+        <v>6903633.055915211</v>
       </c>
       <c r="AE2" t="n">
-        <v>9205522.01750824</v>
+        <v>9445855.313898915</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.254063415189744e-07</v>
+        <v>1.063149330914685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.65555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>8326959.916188203</v>
+        <v>8544356.140081242</v>
       </c>
     </row>
     <row r="3">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2438.423465530755</v>
+        <v>2531.375042099378</v>
       </c>
       <c r="AB3" t="n">
-        <v>3336.358561190359</v>
+        <v>3463.539008985701</v>
       </c>
       <c r="AC3" t="n">
-        <v>3017.941182718876</v>
+        <v>3132.983707075505</v>
       </c>
       <c r="AD3" t="n">
-        <v>2438423.465530755</v>
+        <v>2531375.042099378</v>
       </c>
       <c r="AE3" t="n">
-        <v>3336358.561190359</v>
+        <v>3463539.008985701</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.124937341316754e-06</v>
+        <v>1.912318923465163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.15555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>3017941.182718876</v>
+        <v>3132983.707075505</v>
       </c>
     </row>
     <row r="4">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1880.667262675137</v>
+        <v>1963.366665265931</v>
       </c>
       <c r="AB4" t="n">
-        <v>2573.21191797608</v>
+        <v>2686.364889040954</v>
       </c>
       <c r="AC4" t="n">
-        <v>2327.628184050052</v>
+        <v>2429.981994367687</v>
       </c>
       <c r="AD4" t="n">
-        <v>1880667.262675137</v>
+        <v>1963366.665265932</v>
       </c>
       <c r="AE4" t="n">
-        <v>2573211.91797608</v>
+        <v>2686364.889040954</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.30933883491299e-06</v>
+        <v>2.22578924111553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.59861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2327628.184050052</v>
+        <v>2429981.994367687</v>
       </c>
     </row>
     <row r="5">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1660.606123113401</v>
+        <v>1743.220184849625</v>
       </c>
       <c r="AB5" t="n">
-        <v>2272.114558415421</v>
+        <v>2385.150762358098</v>
       </c>
       <c r="AC5" t="n">
-        <v>2055.267133893064</v>
+        <v>2157.51532117876</v>
       </c>
       <c r="AD5" t="n">
-        <v>1660606.123113401</v>
+        <v>1743220.184849625</v>
       </c>
       <c r="AE5" t="n">
-        <v>2272114.558415421</v>
+        <v>2385150.762358098</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404921746266702e-06</v>
+        <v>2.388273855527603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.5375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2055267.133893064</v>
+        <v>2157515.32117876</v>
       </c>
     </row>
     <row r="6">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1523.958822123077</v>
+        <v>1606.487543004729</v>
       </c>
       <c r="AB6" t="n">
-        <v>2085.147692747008</v>
+        <v>2198.067129567487</v>
       </c>
       <c r="AC6" t="n">
-        <v>1886.1441234744</v>
+        <v>1988.286687728157</v>
       </c>
       <c r="AD6" t="n">
-        <v>1523958.822123077</v>
+        <v>1606487.543004729</v>
       </c>
       <c r="AE6" t="n">
-        <v>2085147.692747008</v>
+        <v>2198067.129567487</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466830062697336e-06</v>
+        <v>2.493513890400653e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1886144.1234744</v>
+        <v>1988286.687728157</v>
       </c>
     </row>
     <row r="7">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1444.964275797002</v>
+        <v>1517.326253063948</v>
       </c>
       <c r="AB7" t="n">
-        <v>1977.063869470246</v>
+        <v>2076.07271915201</v>
       </c>
       <c r="AC7" t="n">
-        <v>1788.375668594574</v>
+        <v>1877.935252622504</v>
       </c>
       <c r="AD7" t="n">
-        <v>1444964.275797002</v>
+        <v>1517326.253063948</v>
       </c>
       <c r="AE7" t="n">
-        <v>1977063.869470246</v>
+        <v>2076072.719152011</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.506092581668783e-06</v>
+        <v>2.560257570474535e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.56111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1788375.668594574</v>
+        <v>1877935.252622504</v>
       </c>
     </row>
     <row r="8">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1371.498482216817</v>
+        <v>1443.68986728317</v>
       </c>
       <c r="AB8" t="n">
-        <v>1876.544729611768</v>
+        <v>1975.320167518686</v>
       </c>
       <c r="AC8" t="n">
-        <v>1697.44993436469</v>
+        <v>1786.798383109969</v>
       </c>
       <c r="AD8" t="n">
-        <v>1371498.482216817</v>
+        <v>1443689.86728317</v>
       </c>
       <c r="AE8" t="n">
-        <v>1876544.729611768</v>
+        <v>1975320.167518686</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.538002568997638e-06</v>
+        <v>2.614502434055182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.27916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1697449.93436469</v>
+        <v>1786798.383109969</v>
       </c>
     </row>
     <row r="9">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1319.945356631443</v>
+        <v>1381.96999808309</v>
       </c>
       <c r="AB9" t="n">
-        <v>1806.007468822475</v>
+        <v>1890.872319590679</v>
       </c>
       <c r="AC9" t="n">
-        <v>1633.64465074546</v>
+        <v>1710.410119264912</v>
       </c>
       <c r="AD9" t="n">
-        <v>1319945.356631443</v>
+        <v>1381969.99808309</v>
       </c>
       <c r="AE9" t="n">
-        <v>1806007.468822475</v>
+        <v>1890872.319590679</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.560354265191121e-06</v>
+        <v>2.65249883619462e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.08888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1633644.65074546</v>
+        <v>1710410.119264912</v>
       </c>
     </row>
     <row r="10">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1263.42516393911</v>
+        <v>1335.701800351484</v>
       </c>
       <c r="AB10" t="n">
-        <v>1728.674047685906</v>
+        <v>1827.566130245473</v>
       </c>
       <c r="AC10" t="n">
-        <v>1563.691822784027</v>
+        <v>1653.145783780018</v>
       </c>
       <c r="AD10" t="n">
-        <v>1263425.16393911</v>
+        <v>1335701.800351484</v>
       </c>
       <c r="AE10" t="n">
-        <v>1728674.047685906</v>
+        <v>1827566.130245473</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.578735594297604e-06</v>
+        <v>2.683745877427711e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.9375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1563691.822784027</v>
+        <v>1653145.783780018</v>
       </c>
     </row>
     <row r="11">
@@ -13952,28 +13952,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1220.05884164068</v>
+        <v>1292.335478053054</v>
       </c>
       <c r="AB11" t="n">
-        <v>1669.33833233008</v>
+        <v>1768.230414889646</v>
       </c>
       <c r="AC11" t="n">
-        <v>1510.019024823561</v>
+        <v>1599.472985819552</v>
       </c>
       <c r="AD11" t="n">
-        <v>1220058.84164068</v>
+        <v>1292335.478053054</v>
       </c>
       <c r="AE11" t="n">
-        <v>1669338.33233008</v>
+        <v>1768230.414889646</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.592411303152827e-06</v>
+        <v>2.70699367610513e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.825</v>
       </c>
       <c r="AH11" t="n">
-        <v>1510019.024823561</v>
+        <v>1599472.985819552</v>
       </c>
     </row>
     <row r="12">
@@ -14058,28 +14058,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1206.178492876399</v>
+        <v>1278.455129288773</v>
       </c>
       <c r="AB12" t="n">
-        <v>1650.346626793022</v>
+        <v>1749.238709352589</v>
       </c>
       <c r="AC12" t="n">
-        <v>1492.839861007933</v>
+        <v>1582.293822003925</v>
       </c>
       <c r="AD12" t="n">
-        <v>1206178.492876399</v>
+        <v>1278455.129288773</v>
       </c>
       <c r="AE12" t="n">
-        <v>1650346.626793022</v>
+        <v>1749238.709352589</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.597558075302642e-06</v>
+        <v>2.715742847650396e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.78472222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1492839.861007934</v>
+        <v>1582293.822003925</v>
       </c>
     </row>
     <row r="13">
@@ -14164,28 +14164,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1206.189415404817</v>
+        <v>1278.466051817191</v>
       </c>
       <c r="AB13" t="n">
-        <v>1650.36157147827</v>
+        <v>1749.253654037837</v>
       </c>
       <c r="AC13" t="n">
-        <v>1492.853379393397</v>
+        <v>1582.307340389388</v>
       </c>
       <c r="AD13" t="n">
-        <v>1206189.415404817</v>
+        <v>1278466.051817191</v>
       </c>
       <c r="AE13" t="n">
-        <v>1650361.57147827</v>
+        <v>1749253.654037837</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.598587429732605e-06</v>
+        <v>2.717492681959449e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.775</v>
       </c>
       <c r="AH13" t="n">
-        <v>1492853.379393397</v>
+        <v>1582307.340389388</v>
       </c>
     </row>
     <row r="14">
@@ -14270,28 +14270,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1211.833355353005</v>
+        <v>1284.109991765379</v>
       </c>
       <c r="AB14" t="n">
-        <v>1658.083859108439</v>
+        <v>1756.975941668006</v>
       </c>
       <c r="AC14" t="n">
-        <v>1499.838662730441</v>
+        <v>1589.292623726432</v>
       </c>
       <c r="AD14" t="n">
-        <v>1211833.355353005</v>
+        <v>1284109.991765379</v>
       </c>
       <c r="AE14" t="n">
-        <v>1658083.859108439</v>
+        <v>1756975.941668006</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.598734480365457e-06</v>
+        <v>2.717742658289313e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.775</v>
       </c>
       <c r="AH14" t="n">
-        <v>1499838.662730441</v>
+        <v>1589292.623726432</v>
       </c>
     </row>
   </sheetData>
@@ -14567,28 +14567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2549.580326272501</v>
+        <v>2655.099344044603</v>
       </c>
       <c r="AB2" t="n">
-        <v>3488.448281951823</v>
+        <v>3632.82405723814</v>
       </c>
       <c r="AC2" t="n">
-        <v>3155.515673990124</v>
+        <v>3286.112427915782</v>
       </c>
       <c r="AD2" t="n">
-        <v>2549580.326272501</v>
+        <v>2655099.344044603</v>
       </c>
       <c r="AE2" t="n">
-        <v>3488448.281951823</v>
+        <v>3632824.05723814</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042810636440385e-06</v>
+        <v>1.880434348151027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3155515.673990123</v>
+        <v>3286112.427915782</v>
       </c>
     </row>
     <row r="3">
@@ -14673,28 +14673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1416.815629513041</v>
+        <v>1493.51020820168</v>
       </c>
       <c r="AB3" t="n">
-        <v>1938.5496497939</v>
+        <v>2043.486555881711</v>
       </c>
       <c r="AC3" t="n">
-        <v>1753.537191989091</v>
+        <v>1848.459067039755</v>
       </c>
       <c r="AD3" t="n">
-        <v>1416815.629513041</v>
+        <v>1493510.20820168</v>
       </c>
       <c r="AE3" t="n">
-        <v>1938549.6497939</v>
+        <v>2043486.555881711</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446889815167857e-06</v>
+        <v>2.609084728670265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1753537.191989091</v>
+        <v>1848459.067039755</v>
       </c>
     </row>
     <row r="4">
@@ -14779,28 +14779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1163.804657292717</v>
+        <v>1240.499146472806</v>
       </c>
       <c r="AB4" t="n">
-        <v>1592.368875545738</v>
+        <v>1697.305659164001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1440.395424967405</v>
+        <v>1535.317189236842</v>
       </c>
       <c r="AD4" t="n">
-        <v>1163804.657292717</v>
+        <v>1240499.146472806</v>
       </c>
       <c r="AE4" t="n">
-        <v>1592368.875545738</v>
+        <v>1697305.659164001</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.590544735794199e-06</v>
+        <v>2.868128545051711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1440395.424967405</v>
+        <v>1535317.189236842</v>
       </c>
     </row>
     <row r="5">
@@ -14885,28 +14885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1042.356693960945</v>
+        <v>1109.443126288431</v>
       </c>
       <c r="AB5" t="n">
-        <v>1426.198414209207</v>
+        <v>1517.989030564186</v>
       </c>
       <c r="AC5" t="n">
-        <v>1290.084039239126</v>
+        <v>1373.114287998124</v>
       </c>
       <c r="AD5" t="n">
-        <v>1042356.693960945</v>
+        <v>1109443.126288431</v>
       </c>
       <c r="AE5" t="n">
-        <v>1426198.414209207</v>
+        <v>1517989.030564186</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.663724429579489e-06</v>
+        <v>3.000088850185117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.28055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1290084.039239126</v>
+        <v>1373114.287998124</v>
       </c>
     </row>
     <row r="6">
@@ -14991,28 +14991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>988.4758898397575</v>
+        <v>1046.124857515232</v>
       </c>
       <c r="AB6" t="n">
-        <v>1352.476320957285</v>
+        <v>1431.354181823826</v>
       </c>
       <c r="AC6" t="n">
-        <v>1223.397879097559</v>
+        <v>1294.747747628771</v>
       </c>
       <c r="AD6" t="n">
-        <v>988475.8898397576</v>
+        <v>1046124.857515232</v>
       </c>
       <c r="AE6" t="n">
-        <v>1352476.320957285</v>
+        <v>1431354.181823826</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.693155393384443e-06</v>
+        <v>3.053159842467029e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.05</v>
       </c>
       <c r="AH6" t="n">
-        <v>1223397.879097559</v>
+        <v>1294747.747628771</v>
       </c>
     </row>
     <row r="7">
@@ -15097,28 +15097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>992.2282673472878</v>
+        <v>1049.877235022763</v>
       </c>
       <c r="AB7" t="n">
-        <v>1357.6104894063</v>
+        <v>1436.488350272841</v>
       </c>
       <c r="AC7" t="n">
-        <v>1228.042049715651</v>
+        <v>1299.391918246863</v>
       </c>
       <c r="AD7" t="n">
-        <v>992228.2673472877</v>
+        <v>1049877.235022763</v>
       </c>
       <c r="AE7" t="n">
-        <v>1357610.4894063</v>
+        <v>1436488.350272842</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.694428083711143e-06</v>
+        <v>3.055454804295436e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.03888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1228042.049715651</v>
+        <v>1299391.918246863</v>
       </c>
     </row>
     <row r="8">
@@ -15203,28 +15203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>997.5461272237701</v>
+        <v>1055.195094899245</v>
       </c>
       <c r="AB8" t="n">
-        <v>1364.886619896723</v>
+        <v>1443.764480763265</v>
       </c>
       <c r="AC8" t="n">
-        <v>1234.623756524181</v>
+        <v>1305.973625055394</v>
       </c>
       <c r="AD8" t="n">
-        <v>997546.1272237701</v>
+        <v>1055195.094899245</v>
       </c>
       <c r="AE8" t="n">
-        <v>1364886.619896723</v>
+        <v>1443764.480763265</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.694905342583656e-06</v>
+        <v>3.056315414981089e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.03611111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1234623.756524181</v>
+        <v>1305973.625055394</v>
       </c>
     </row>
   </sheetData>
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1723.429054382421</v>
+        <v>1806.609287531687</v>
       </c>
       <c r="AB2" t="n">
-        <v>2358.071664529815</v>
+        <v>2471.882529177537</v>
       </c>
       <c r="AC2" t="n">
-        <v>2133.020614441457</v>
+        <v>2235.969529901751</v>
       </c>
       <c r="AD2" t="n">
-        <v>1723429.054382421</v>
+        <v>1806609.287531687</v>
       </c>
       <c r="AE2" t="n">
-        <v>2358071.664529815</v>
+        <v>2471882.529177537</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256618209691598e-06</v>
+        <v>2.344447910399493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2133020.614441457</v>
+        <v>2235969.529901751</v>
       </c>
     </row>
     <row r="3">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1070.116415235786</v>
+        <v>1134.793207386099</v>
       </c>
       <c r="AB3" t="n">
-        <v>1464.180489529913</v>
+        <v>1552.674129888663</v>
       </c>
       <c r="AC3" t="n">
-        <v>1324.441158599401</v>
+        <v>1404.489090123916</v>
       </c>
       <c r="AD3" t="n">
-        <v>1070116.415235786</v>
+        <v>1134793.207386099</v>
       </c>
       <c r="AE3" t="n">
-        <v>1464180.489529913</v>
+        <v>1552674.129888663</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.611911555541365e-06</v>
+        <v>3.007311726817338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1324441.158599401</v>
+        <v>1404489.090123916</v>
       </c>
     </row>
     <row r="4">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>907.3107165443195</v>
+        <v>971.9021678400609</v>
       </c>
       <c r="AB4" t="n">
-        <v>1241.422550099737</v>
+        <v>1329.799423336289</v>
       </c>
       <c r="AC4" t="n">
-        <v>1122.94292426571</v>
+        <v>1202.885232758286</v>
       </c>
       <c r="AD4" t="n">
-        <v>907310.7165443194</v>
+        <v>971902.1678400609</v>
       </c>
       <c r="AE4" t="n">
-        <v>1241422.550099737</v>
+        <v>1329799.423336289</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.721946435039614e-06</v>
+        <v>3.212601640110924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1122942.92426571</v>
+        <v>1202885.232758286</v>
       </c>
     </row>
     <row r="5">
@@ -15818,28 +15818,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>901.1393325161192</v>
+        <v>965.7307838118608</v>
       </c>
       <c r="AB5" t="n">
-        <v>1232.978590210106</v>
+        <v>1321.355463446658</v>
       </c>
       <c r="AC5" t="n">
-        <v>1115.304844056772</v>
+        <v>1195.247152549348</v>
       </c>
       <c r="AD5" t="n">
-        <v>901139.3325161192</v>
+        <v>965730.7838118607</v>
       </c>
       <c r="AE5" t="n">
-        <v>1232978.590210106</v>
+        <v>1321355.463446658</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.729072187778205e-06</v>
+        <v>3.225896017026021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.31111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1115304.844056773</v>
+        <v>1195247.152549348</v>
       </c>
     </row>
   </sheetData>
@@ -29016,28 +29016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1262.116163677566</v>
+        <v>1342.732226641429</v>
       </c>
       <c r="AB2" t="n">
-        <v>1726.883015779046</v>
+        <v>1837.185469655893</v>
       </c>
       <c r="AC2" t="n">
-        <v>1562.071724448628</v>
+        <v>1661.847066937936</v>
       </c>
       <c r="AD2" t="n">
-        <v>1262116.163677566</v>
+        <v>1342732.226641429</v>
       </c>
       <c r="AE2" t="n">
-        <v>1726883.015779046</v>
+        <v>1837185.469655893</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43585348817722e-06</v>
+        <v>2.761199504392345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1562071.724448628</v>
+        <v>1661847.066937936</v>
       </c>
     </row>
     <row r="3">
@@ -29122,28 +29122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.2799132236891</v>
+        <v>911.0476717491381</v>
       </c>
       <c r="AB3" t="n">
-        <v>1160.654000741207</v>
+        <v>1246.535617073798</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.882811898587</v>
+        <v>1127.568007304001</v>
       </c>
       <c r="AD3" t="n">
-        <v>848279.9132236891</v>
+        <v>911047.671749138</v>
       </c>
       <c r="AE3" t="n">
-        <v>1160654.000741208</v>
+        <v>1246535.617073798</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.730875438171609e-06</v>
+        <v>3.328537654709827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.75555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049882.811898587</v>
+        <v>1127568.007304001</v>
       </c>
     </row>
     <row r="4">
@@ -29228,28 +29228,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>837.5151394231447</v>
+        <v>900.2828979485934</v>
       </c>
       <c r="AB4" t="n">
-        <v>1145.925162319</v>
+        <v>1231.806778651591</v>
       </c>
       <c r="AC4" t="n">
-        <v>1036.55967314334</v>
+        <v>1114.244868548754</v>
       </c>
       <c r="AD4" t="n">
-        <v>837515.1394231446</v>
+        <v>900282.8979485934</v>
       </c>
       <c r="AE4" t="n">
-        <v>1145925.162319</v>
+        <v>1231806.77865159</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.744075141919179e-06</v>
+        <v>3.353921174509041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.65138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1036559.67314334</v>
+        <v>1114244.868548754</v>
       </c>
     </row>
   </sheetData>
@@ -29525,28 +29525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>740.618238112341</v>
+        <v>799.4327948716104</v>
       </c>
       <c r="AB2" t="n">
-        <v>1013.346547155972</v>
+        <v>1093.819218429123</v>
       </c>
       <c r="AC2" t="n">
-        <v>916.6341749362168</v>
+        <v>989.4266474071618</v>
       </c>
       <c r="AD2" t="n">
-        <v>740618.238112341</v>
+        <v>799432.7948716105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1013346.547155972</v>
+        <v>1093819.218429123</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.695477270033141e-06</v>
+        <v>3.497090266556311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.07222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>916634.1749362168</v>
+        <v>989426.6474071618</v>
       </c>
     </row>
     <row r="3">
@@ -29631,28 +29631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>749.3795239331039</v>
+        <v>808.1940806923734</v>
       </c>
       <c r="AB3" t="n">
-        <v>1025.334124936591</v>
+        <v>1105.806796209742</v>
       </c>
       <c r="AC3" t="n">
-        <v>927.4776751181248</v>
+        <v>1000.27014758907</v>
       </c>
       <c r="AD3" t="n">
-        <v>749379.5239331039</v>
+        <v>808194.0806923734</v>
       </c>
       <c r="AE3" t="n">
-        <v>1025334.124936591</v>
+        <v>1105806.796209742</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69639722514439e-06</v>
+        <v>3.498987765344459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.06388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>927477.6751181248</v>
+        <v>1000270.14758907</v>
       </c>
     </row>
   </sheetData>
@@ -29928,28 +29928,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3649.738931417286</v>
+        <v>3778.486528175149</v>
       </c>
       <c r="AB2" t="n">
-        <v>4993.733821083193</v>
+        <v>5169.891962910412</v>
       </c>
       <c r="AC2" t="n">
-        <v>4517.138873948261</v>
+        <v>4676.484729958988</v>
       </c>
       <c r="AD2" t="n">
-        <v>3649738.931417285</v>
+        <v>3778486.52817515</v>
       </c>
       <c r="AE2" t="n">
-        <v>4993733.821083193</v>
+        <v>5169891.962910412</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.673636955199855e-07</v>
+        <v>1.52392379746008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.63611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>4517138.873948261</v>
+        <v>4676484.729958989</v>
       </c>
     </row>
     <row r="3">
@@ -30034,28 +30034,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1767.60198023992</v>
+        <v>1846.798536655398</v>
       </c>
       <c r="AB3" t="n">
-        <v>2418.511010459997</v>
+        <v>2526.871232853136</v>
       </c>
       <c r="AC3" t="n">
-        <v>2187.691714023216</v>
+        <v>2285.710188875681</v>
       </c>
       <c r="AD3" t="n">
-        <v>1767601.98023992</v>
+        <v>1846798.536655398</v>
       </c>
       <c r="AE3" t="n">
-        <v>2418511.010459997</v>
+        <v>2526871.232853136</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.313585926672719e-06</v>
+        <v>2.307918655120933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.26944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>2187691.714023216</v>
+        <v>2285710.188875681</v>
       </c>
     </row>
     <row r="4">
@@ -30140,28 +30140,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1433.315094638545</v>
+        <v>1502.772017284428</v>
       </c>
       <c r="AB4" t="n">
-        <v>1961.124945883643</v>
+        <v>2056.158971670905</v>
       </c>
       <c r="AC4" t="n">
-        <v>1773.957933504656</v>
+        <v>1859.922045251875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1433315.094638545</v>
+        <v>1502772.017284428</v>
       </c>
       <c r="AE4" t="n">
-        <v>1961124.945883643</v>
+        <v>2056158.971670906</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.47207175359938e-06</v>
+        <v>2.586372001117719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1773957.933504656</v>
+        <v>1859922.045251875</v>
       </c>
     </row>
     <row r="5">
@@ -30246,28 +30246,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1275.752249110265</v>
+        <v>1345.123830901576</v>
       </c>
       <c r="AB5" t="n">
-        <v>1745.540509449695</v>
+        <v>1840.45776811476</v>
       </c>
       <c r="AC5" t="n">
-        <v>1578.948573109307</v>
+        <v>1664.807061824588</v>
       </c>
       <c r="AD5" t="n">
-        <v>1275752.249110264</v>
+        <v>1345123.830901576</v>
       </c>
       <c r="AE5" t="n">
-        <v>1745540.509449695</v>
+        <v>1840457.76811476</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555469149904476e-06</v>
+        <v>2.732897936583989e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.73888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1578948.573109307</v>
+        <v>1664807.061824588</v>
       </c>
     </row>
     <row r="6">
@@ -30352,28 +30352,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1180.640853663972</v>
+        <v>1249.841843254692</v>
       </c>
       <c r="AB6" t="n">
-        <v>1615.404902181452</v>
+        <v>1710.088749071669</v>
       </c>
       <c r="AC6" t="n">
-        <v>1461.232925552273</v>
+        <v>1546.880278984902</v>
       </c>
       <c r="AD6" t="n">
-        <v>1180640.853663972</v>
+        <v>1249841.843254692</v>
       </c>
       <c r="AE6" t="n">
-        <v>1615404.902181452</v>
+        <v>1710088.749071669</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.607169380824242e-06</v>
+        <v>2.823733202850901e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.29722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1461232.925552273</v>
+        <v>1546880.278984902</v>
       </c>
     </row>
     <row r="7">
@@ -30458,28 +30458,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1106.591364602774</v>
+        <v>1166.052809932449</v>
       </c>
       <c r="AB7" t="n">
-        <v>1514.087124415024</v>
+        <v>1595.444897168914</v>
       </c>
       <c r="AC7" t="n">
-        <v>1369.584774295479</v>
+        <v>1443.177875404089</v>
       </c>
       <c r="AD7" t="n">
-        <v>1106591.364602774</v>
+        <v>1166052.809932449</v>
       </c>
       <c r="AE7" t="n">
-        <v>1514087.124415024</v>
+        <v>1595444.897168914</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.641943940907179e-06</v>
+        <v>2.884830733137575e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.01527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1369584.774295479</v>
+        <v>1443177.875404089</v>
       </c>
     </row>
     <row r="8">
@@ -30564,28 +30564,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1066.134269046572</v>
+        <v>1135.420509983312</v>
       </c>
       <c r="AB8" t="n">
-        <v>1458.731941433941</v>
+        <v>1553.532432976808</v>
       </c>
       <c r="AC8" t="n">
-        <v>1319.512612286623</v>
+        <v>1405.265477969965</v>
       </c>
       <c r="AD8" t="n">
-        <v>1066134.269046572</v>
+        <v>1135420.509983312</v>
       </c>
       <c r="AE8" t="n">
-        <v>1458731.941433941</v>
+        <v>1553532.432976808</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.655176738106881e-06</v>
+        <v>2.908080235813035e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.91111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1319512.612286623</v>
+        <v>1405265.477969965</v>
       </c>
     </row>
     <row r="9">
@@ -30670,28 +30670,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1068.065282667974</v>
+        <v>1137.351523604714</v>
       </c>
       <c r="AB9" t="n">
-        <v>1461.374039461052</v>
+        <v>1556.174531003919</v>
       </c>
       <c r="AC9" t="n">
-        <v>1321.902552186234</v>
+        <v>1407.655417869576</v>
       </c>
       <c r="AD9" t="n">
-        <v>1068065.282667974</v>
+        <v>1137351.523604714</v>
       </c>
       <c r="AE9" t="n">
-        <v>1461374.039461052</v>
+        <v>1556174.531003919</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.655946086781282e-06</v>
+        <v>2.909431951084864e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.90555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1321902.552186234</v>
+        <v>1407655.417869576</v>
       </c>
     </row>
     <row r="10">
@@ -30776,28 +30776,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1073.947368217895</v>
+        <v>1143.233609154635</v>
       </c>
       <c r="AB10" t="n">
-        <v>1469.422168409753</v>
+        <v>1564.22265995262</v>
       </c>
       <c r="AC10" t="n">
-        <v>1329.182579003692</v>
+        <v>1414.935444687033</v>
       </c>
       <c r="AD10" t="n">
-        <v>1073947.368217895</v>
+        <v>1143233.609154635</v>
       </c>
       <c r="AE10" t="n">
-        <v>1469422.168409753</v>
+        <v>1564222.659952621</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.656253826251042e-06</v>
+        <v>2.909972637193596e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.90416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1329182.579003692</v>
+        <v>1414935.444687033</v>
       </c>
     </row>
   </sheetData>
@@ -31073,28 +31073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5925.467336078641</v>
+        <v>6089.508503582718</v>
       </c>
       <c r="AB2" t="n">
-        <v>8107.485822392511</v>
+        <v>8331.934184757154</v>
       </c>
       <c r="AC2" t="n">
-        <v>7333.718754430882</v>
+        <v>7536.746080106689</v>
       </c>
       <c r="AD2" t="n">
-        <v>5925467.336078641</v>
+        <v>6089508.503582718</v>
       </c>
       <c r="AE2" t="n">
-        <v>8107485.822392511</v>
+        <v>8331934.184757154</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.699009060714056e-07</v>
+        <v>1.145455894020369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.74305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>7333718.754430882</v>
+        <v>7536746.080106689</v>
       </c>
     </row>
     <row r="3">
@@ -31179,28 +31179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2284.89022041853</v>
+        <v>2377.21138137027</v>
       </c>
       <c r="AB3" t="n">
-        <v>3126.287601819071</v>
+        <v>3252.605487155418</v>
       </c>
       <c r="AC3" t="n">
-        <v>2827.919100873547</v>
+        <v>2942.181384521654</v>
       </c>
       <c r="AD3" t="n">
-        <v>2284890.22041853</v>
+        <v>2377211.38137027</v>
       </c>
       <c r="AE3" t="n">
-        <v>3126287.601819071</v>
+        <v>3252605.487155418</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.160687094450412e-06</v>
+        <v>1.984645581759948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.74305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2827919.100873548</v>
+        <v>2942181.384521654</v>
       </c>
     </row>
     <row r="4">
@@ -31285,28 +31285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1790.690099908974</v>
+        <v>1872.582761887706</v>
       </c>
       <c r="AB4" t="n">
-        <v>2450.101194367149</v>
+        <v>2562.150347335715</v>
       </c>
       <c r="AC4" t="n">
-        <v>2216.266975115371</v>
+        <v>2317.622314186591</v>
       </c>
       <c r="AD4" t="n">
-        <v>1790690.099908974</v>
+        <v>1872582.761887706</v>
       </c>
       <c r="AE4" t="n">
-        <v>2450101.194367149</v>
+        <v>2562150.347335715</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.339356990824039e-06</v>
+        <v>2.29015119315759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2216266.975115371</v>
+        <v>2317622.314186591</v>
       </c>
     </row>
     <row r="5">
@@ -31391,28 +31391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1585.799447097254</v>
+        <v>1657.519543158143</v>
       </c>
       <c r="AB5" t="n">
-        <v>2169.760764052503</v>
+        <v>2267.89136355034</v>
       </c>
       <c r="AC5" t="n">
-        <v>1962.68184200969</v>
+        <v>2051.446994818615</v>
       </c>
       <c r="AD5" t="n">
-        <v>1585799.447097254</v>
+        <v>1657519.543158143</v>
       </c>
       <c r="AE5" t="n">
-        <v>2169760.764052503</v>
+        <v>2267891.36355034</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432472920220418e-06</v>
+        <v>2.449369055363165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.37638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1962681.84200969</v>
+        <v>2051446.994818615</v>
       </c>
     </row>
     <row r="6">
@@ -31497,28 +31497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1457.883245669141</v>
+        <v>1529.68859307605</v>
       </c>
       <c r="AB6" t="n">
-        <v>1994.740173994032</v>
+        <v>2092.987418144519</v>
       </c>
       <c r="AC6" t="n">
-        <v>1804.364971423459</v>
+        <v>1893.235636483096</v>
       </c>
       <c r="AD6" t="n">
-        <v>1457883.245669141</v>
+        <v>1529688.59307605</v>
       </c>
       <c r="AE6" t="n">
-        <v>1994740.173994032</v>
+        <v>2092987.418144519</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.492078976935935e-06</v>
+        <v>2.551288769704951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.80138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1804364.971423459</v>
+        <v>1893235.636483096</v>
       </c>
     </row>
     <row r="7">
@@ -31603,28 +31603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1375.330204956977</v>
+        <v>1446.964960163294</v>
       </c>
       <c r="AB7" t="n">
-        <v>1881.787461708532</v>
+        <v>1979.801294084172</v>
       </c>
       <c r="AC7" t="n">
-        <v>1702.19230746836</v>
+        <v>1790.851837245345</v>
       </c>
       <c r="AD7" t="n">
-        <v>1375330.204956977</v>
+        <v>1446964.960163294</v>
       </c>
       <c r="AE7" t="n">
-        <v>1881787.461708532</v>
+        <v>1979801.294084172</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.532557716944234e-06</v>
+        <v>2.620502904071388e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1702192.30746836</v>
+        <v>1790851.837245345</v>
       </c>
     </row>
     <row r="8">
@@ -31709,28 +31709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1315.935271990483</v>
+        <v>1377.482802133527</v>
       </c>
       <c r="AB8" t="n">
-        <v>1800.520694104265</v>
+        <v>1884.732740131373</v>
       </c>
       <c r="AC8" t="n">
-        <v>1628.681526105619</v>
+        <v>1704.856492652249</v>
       </c>
       <c r="AD8" t="n">
-        <v>1315935.271990483</v>
+        <v>1377482.802133527</v>
       </c>
       <c r="AE8" t="n">
-        <v>1800520.694104265</v>
+        <v>1884732.740131373</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.560433186253978e-06</v>
+        <v>2.668166850081974e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.19722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1628681.52610562</v>
+        <v>1704856.492652249</v>
       </c>
     </row>
     <row r="9">
@@ -31815,28 +31815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1259.05708126652</v>
+        <v>1320.604611409564</v>
       </c>
       <c r="AB9" t="n">
-        <v>1722.697444267061</v>
+        <v>1806.909490294169</v>
       </c>
       <c r="AC9" t="n">
-        <v>1558.28561800726</v>
+        <v>1634.46058455389</v>
       </c>
       <c r="AD9" t="n">
-        <v>1259057.08126652</v>
+        <v>1320604.611409564</v>
       </c>
       <c r="AE9" t="n">
-        <v>1722697.444267061</v>
+        <v>1806909.490294169</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.583712168603073e-06</v>
+        <v>2.707971315633368e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13.00277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1558285.61800726</v>
+        <v>1634460.58455389</v>
       </c>
     </row>
     <row r="10">
@@ -31921,28 +31921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1199.255059984241</v>
+        <v>1270.975066536578</v>
       </c>
       <c r="AB10" t="n">
-        <v>1640.873680469669</v>
+        <v>1739.004157497957</v>
       </c>
       <c r="AC10" t="n">
-        <v>1484.270999386317</v>
+        <v>1573.036041414016</v>
       </c>
       <c r="AD10" t="n">
-        <v>1199255.059984241</v>
+        <v>1270975.066536578</v>
       </c>
       <c r="AE10" t="n">
-        <v>1640873.680469669</v>
+        <v>1739004.157497957</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.601356747581049e-06</v>
+        <v>2.738141579331559e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.85972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1484270.999386318</v>
+        <v>1573036.041414016</v>
       </c>
     </row>
     <row r="11">
@@ -32027,28 +32027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1173.33475632081</v>
+        <v>1245.054762873148</v>
       </c>
       <c r="AB11" t="n">
-        <v>1605.408377474271</v>
+        <v>1703.53885450256</v>
       </c>
       <c r="AC11" t="n">
-        <v>1452.190455132935</v>
+        <v>1540.955497160633</v>
       </c>
       <c r="AD11" t="n">
-        <v>1173334.75632081</v>
+        <v>1245054.762873148</v>
       </c>
       <c r="AE11" t="n">
-        <v>1605408.377474271</v>
+        <v>1703538.85450256</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.609363531318954e-06</v>
+        <v>2.751832287228216e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12.79722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1452190.455132935</v>
+        <v>1540955.497160633</v>
       </c>
     </row>
     <row r="12">
@@ -32133,28 +32133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1172.962296114901</v>
+        <v>1244.682302667238</v>
       </c>
       <c r="AB12" t="n">
-        <v>1604.898760988761</v>
+        <v>1703.029238017049</v>
       </c>
       <c r="AC12" t="n">
-        <v>1451.72947572955</v>
+        <v>1540.494517757249</v>
       </c>
       <c r="AD12" t="n">
-        <v>1172962.296114901</v>
+        <v>1244682.302667238</v>
       </c>
       <c r="AE12" t="n">
-        <v>1604898.760988761</v>
+        <v>1703029.238017049</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.610549721502348e-06</v>
+        <v>2.753860540249944e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.78611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1451729.47572955</v>
+        <v>1540494.517757249</v>
       </c>
     </row>
     <row r="13">
@@ -32239,28 +32239,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1179.724406925559</v>
+        <v>1251.444413477896</v>
       </c>
       <c r="AB13" t="n">
-        <v>1614.150979323178</v>
+        <v>1712.281456351467</v>
       </c>
       <c r="AC13" t="n">
-        <v>1460.098675331702</v>
+        <v>1548.8637173594</v>
       </c>
       <c r="AD13" t="n">
-        <v>1179724.406925559</v>
+        <v>1251444.413477896</v>
       </c>
       <c r="AE13" t="n">
-        <v>1614150.979323178</v>
+        <v>1712281.456351467</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.610401447729424e-06</v>
+        <v>2.753607008622228e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>12.7875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1460098.675331702</v>
+        <v>1548863.7173594</v>
       </c>
     </row>
   </sheetData>
@@ -32536,28 +32536,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>706.6896030096015</v>
+        <v>779.8456183557553</v>
       </c>
       <c r="AB2" t="n">
-        <v>966.9238917826639</v>
+        <v>1067.019179394889</v>
       </c>
       <c r="AC2" t="n">
-        <v>874.6420326371311</v>
+        <v>965.1843664842638</v>
       </c>
       <c r="AD2" t="n">
-        <v>706689.6030096015</v>
+        <v>779845.6183557552</v>
       </c>
       <c r="AE2" t="n">
-        <v>966923.8917826639</v>
+        <v>1067019.179394889</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592201647621782e-06</v>
+        <v>3.412821483745028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.61944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>874642.0326371312</v>
+        <v>965184.3664842638</v>
       </c>
     </row>
   </sheetData>
@@ -32833,28 +32833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1974.999521402108</v>
+        <v>2068.61136895231</v>
       </c>
       <c r="AB2" t="n">
-        <v>2702.281476011864</v>
+        <v>2830.365335693292</v>
       </c>
       <c r="AC2" t="n">
-        <v>2444.379524617163</v>
+        <v>2560.239240497422</v>
       </c>
       <c r="AD2" t="n">
-        <v>1974999.521402108</v>
+        <v>2068611.36895231</v>
       </c>
       <c r="AE2" t="n">
-        <v>2702281.476011863</v>
+        <v>2830365.335693292</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.180167254663266e-06</v>
+        <v>2.174378546856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.21805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2444379.524617163</v>
+        <v>2560239.240497422</v>
       </c>
     </row>
     <row r="3">
@@ -32939,28 +32939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1186.314191537921</v>
+        <v>1261.254802483985</v>
       </c>
       <c r="AB3" t="n">
-        <v>1623.167413350591</v>
+        <v>1725.704463393414</v>
       </c>
       <c r="AC3" t="n">
-        <v>1468.254593550183</v>
+        <v>1561.005651448572</v>
       </c>
       <c r="AD3" t="n">
-        <v>1186314.191537921</v>
+        <v>1261254.802483985</v>
       </c>
       <c r="AE3" t="n">
-        <v>1623167.413350591</v>
+        <v>1725704.463393414</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.550857675043176e-06</v>
+        <v>2.857350637815336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1468254.593550183</v>
+        <v>1561005.651448572</v>
       </c>
     </row>
     <row r="4">
@@ -33045,28 +33045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>983.8475052962567</v>
+        <v>1049.32462092122</v>
       </c>
       <c r="AB4" t="n">
-        <v>1346.143561034952</v>
+        <v>1435.732239279498</v>
       </c>
       <c r="AC4" t="n">
-        <v>1217.669508894129</v>
+        <v>1298.707969425516</v>
       </c>
       <c r="AD4" t="n">
-        <v>983847.5052962567</v>
+        <v>1049324.62092122</v>
       </c>
       <c r="AE4" t="n">
-        <v>1346143.561034952</v>
+        <v>1435732.239279498</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.681497470771779e-06</v>
+        <v>3.098045647845058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.48888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1217669.508894129</v>
+        <v>1298707.969425516</v>
       </c>
     </row>
     <row r="5">
@@ -33151,28 +33151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>930.3489318592297</v>
+        <v>995.8260474841934</v>
       </c>
       <c r="AB5" t="n">
-        <v>1272.944452667925</v>
+        <v>1362.533130912471</v>
       </c>
       <c r="AC5" t="n">
-        <v>1151.456420694058</v>
+        <v>1232.494881225444</v>
       </c>
       <c r="AD5" t="n">
-        <v>930348.9318592297</v>
+        <v>995826.0474841933</v>
       </c>
       <c r="AE5" t="n">
-        <v>1272944.452667925</v>
+        <v>1362533.130912471</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.717586714341806e-06</v>
+        <v>3.164537644365769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.20416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1151456.420694058</v>
+        <v>1232494.881225444</v>
       </c>
     </row>
     <row r="6">
@@ -33257,28 +33257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>933.859112167115</v>
+        <v>990.1286655261425</v>
       </c>
       <c r="AB6" t="n">
-        <v>1277.7472362234</v>
+        <v>1354.737721566714</v>
       </c>
       <c r="AC6" t="n">
-        <v>1155.800833327747</v>
+        <v>1225.44345480672</v>
       </c>
       <c r="AD6" t="n">
-        <v>933859.112167115</v>
+        <v>990128.6655261426</v>
       </c>
       <c r="AE6" t="n">
-        <v>1277747.2362234</v>
+        <v>1354737.721566714</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.71856651280977e-06</v>
+        <v>3.166342856940992e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.19861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1155800.833327747</v>
+        <v>1225443.45480672</v>
       </c>
     </row>
   </sheetData>
@@ -33554,28 +33554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2877.800850850707</v>
+        <v>2984.567006154612</v>
       </c>
       <c r="AB2" t="n">
-        <v>3937.534083747342</v>
+        <v>4083.616247624498</v>
       </c>
       <c r="AC2" t="n">
-        <v>3561.741357158142</v>
+        <v>3693.881644342462</v>
       </c>
       <c r="AD2" t="n">
-        <v>2877800.850850707</v>
+        <v>2984567.006154613</v>
       </c>
       <c r="AE2" t="n">
-        <v>3937534.083747342</v>
+        <v>4083616.247624498</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.810693467755309e-07</v>
+        <v>1.752608791260434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.25833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3561741.357158142</v>
+        <v>3693881.644342462</v>
       </c>
     </row>
     <row r="3">
@@ -33660,28 +33660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1525.852256506186</v>
+        <v>1603.562370433405</v>
       </c>
       <c r="AB3" t="n">
-        <v>2087.738373202406</v>
+        <v>2194.064779405894</v>
       </c>
       <c r="AC3" t="n">
-        <v>1888.487553023178</v>
+        <v>1984.666316248654</v>
       </c>
       <c r="AD3" t="n">
-        <v>1525852.256506186</v>
+        <v>1603562.370433405</v>
       </c>
       <c r="AE3" t="n">
-        <v>2087738.373202407</v>
+        <v>2194064.779405894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.401011049537942e-06</v>
+        <v>2.502803996622072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.58611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1888487.553023178</v>
+        <v>1984666.316248654</v>
       </c>
     </row>
     <row r="4">
@@ -33766,28 +33766,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1263.232558561352</v>
+        <v>1331.143656901648</v>
       </c>
       <c r="AB4" t="n">
-        <v>1728.410516510908</v>
+        <v>1821.329477286311</v>
       </c>
       <c r="AC4" t="n">
-        <v>1563.453442654502</v>
+        <v>1647.504348226081</v>
       </c>
       <c r="AD4" t="n">
-        <v>1263232.558561352</v>
+        <v>1331143.656901648</v>
       </c>
       <c r="AE4" t="n">
-        <v>1728410.516510908</v>
+        <v>1821329.477286311</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.547542560947364e-06</v>
+        <v>2.764571848137252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1563453.442654502</v>
+        <v>1647504.348226081</v>
       </c>
     </row>
     <row r="5">
@@ -33872,28 +33872,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1121.686673231482</v>
+        <v>1189.512430717207</v>
       </c>
       <c r="AB5" t="n">
-        <v>1534.741191638839</v>
+        <v>1627.543385292044</v>
       </c>
       <c r="AC5" t="n">
-        <v>1388.267646331619</v>
+        <v>1472.212928871259</v>
       </c>
       <c r="AD5" t="n">
-        <v>1121686.673231483</v>
+        <v>1189512.430717207</v>
       </c>
       <c r="AE5" t="n">
-        <v>1534741.191638839</v>
+        <v>1627543.385292044</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.625524996203881e-06</v>
+        <v>2.903881777698979e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.43333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1388267.646331619</v>
+        <v>1472212.928871259</v>
       </c>
     </row>
     <row r="6">
@@ -33978,28 +33978,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1032.216649128113</v>
+        <v>1090.499324082078</v>
       </c>
       <c r="AB6" t="n">
-        <v>1412.324357521721</v>
+        <v>1492.069284643885</v>
       </c>
       <c r="AC6" t="n">
-        <v>1277.534103049532</v>
+        <v>1349.668286249865</v>
       </c>
       <c r="AD6" t="n">
-        <v>1032216.649128113</v>
+        <v>1090499.324082078</v>
       </c>
       <c r="AE6" t="n">
-        <v>1412324.357521721</v>
+        <v>1492069.284643885</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.672062901115027e-06</v>
+        <v>2.98701834856646e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.05972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1277534.103049532</v>
+        <v>1349668.286249865</v>
       </c>
     </row>
     <row r="7">
@@ -34084,28 +34084,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1006.286049640684</v>
+        <v>1074.197058472429</v>
       </c>
       <c r="AB7" t="n">
-        <v>1376.844967325709</v>
+        <v>1469.763805631564</v>
       </c>
       <c r="AC7" t="n">
-        <v>1245.440816058192</v>
+        <v>1329.491610848544</v>
       </c>
       <c r="AD7" t="n">
-        <v>1006286.049640684</v>
+        <v>1074197.058472429</v>
       </c>
       <c r="AE7" t="n">
-        <v>1376844.967325709</v>
+        <v>1469763.805631564</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.681024592263458e-06</v>
+        <v>3.00302775579432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.99027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1245440.816058191</v>
+        <v>1329491.610848544</v>
       </c>
     </row>
     <row r="8">
@@ -34190,28 +34190,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1011.930088942376</v>
+        <v>1079.841097774121</v>
       </c>
       <c r="AB8" t="n">
-        <v>1384.567390895724</v>
+        <v>1477.486229201578</v>
       </c>
       <c r="AC8" t="n">
-        <v>1252.426222361174</v>
+        <v>1336.477017151526</v>
       </c>
       <c r="AD8" t="n">
-        <v>1011930.088942376</v>
+        <v>1079841.097774121</v>
       </c>
       <c r="AE8" t="n">
-        <v>1384567.390895724</v>
+        <v>1477486.229201579</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.681024592263458e-06</v>
+        <v>3.00302775579432e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.99027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1252426.222361173</v>
+        <v>1336477.017151526</v>
       </c>
     </row>
   </sheetData>
